--- a/Proyecto/Modulo 5/M2/ModelMetrics_TFID.xlsx
+++ b/Proyecto/Modulo 5/M2/ModelMetrics_TFID.xlsx
@@ -423,13 +423,13 @@
         <v>0.65283</v>
       </c>
       <c r="C2">
-        <v>0.75648</v>
+        <v>0.75398</v>
       </c>
       <c r="D2">
         <v>0.67094</v>
       </c>
       <c r="E2">
-        <v>0.72556</v>
+        <v>0.7229100000000001</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,13 +440,13 @@
         <v>0.67092</v>
       </c>
       <c r="C3">
-        <v>0.76068</v>
+        <v>0.75642</v>
       </c>
       <c r="D3">
         <v>0.70622</v>
       </c>
       <c r="E3">
-        <v>0.73075</v>
+        <v>0.7267400000000001</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,13 +457,13 @@
         <v>0.8188299999999999</v>
       </c>
       <c r="C4">
-        <v>0.86258</v>
+        <v>0.8657899999999999</v>
       </c>
       <c r="D4">
         <v>0.76644</v>
       </c>
       <c r="E4">
-        <v>0.85393</v>
+        <v>0.85714</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,13 +474,13 @@
         <v>0.613531784334487</v>
       </c>
       <c r="C5">
-        <v>0.7313629963360178</v>
+        <v>0.7275070304030957</v>
       </c>
       <c r="D5">
         <v>0.648330884558099</v>
       </c>
       <c r="E5">
-        <v>0.6951732065946639</v>
+        <v>0.6911351576318802</v>
       </c>
     </row>
   </sheetData>
